--- a/src/test/resources/case/delEducationTest.xlsx
+++ b/src/test/resources/case/delEducationTest.xlsx
@@ -95,11 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/deleducation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/deleducation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
